--- a/questions4.xlsx
+++ b/questions4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196CC0FA-A45F-4CF3-93FB-919D1780C02D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E784D8B-5962-4A2F-9A75-6A33FF43A4CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
   <si>
     <t>1 : 25 000</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>повітряного підриву</t>
+  </si>
+  <si>
+    <t>Variant</t>
   </si>
 </sst>
 </file>
@@ -669,10 +672,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -688,10 +691,12 @@
     <col min="15" max="16" width="41.42578125" style="2" customWidth="1"/>
     <col min="17" max="26" width="33" style="2" customWidth="1"/>
     <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="2"/>
+    <col min="28" max="28" width="12.5703125" style="2"/>
+    <col min="29" max="29" width="13.42578125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -776,8 +781,11 @@
       <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
@@ -814,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
@@ -879,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
@@ -944,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>97</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1199,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" ht="150" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" ht="150" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>49</v>
       </c>

--- a/questions4.xlsx
+++ b/questions4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90041969-EA30-4D8A-9B51-B75DE315CBF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B7DB6-2408-4F1B-AB93-A2D9F46E36FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="377">
   <si>
     <t>Question</t>
   </si>
@@ -592,76 +592,12 @@
     <t>серцевини бризантної ВР та пороху покритих вологоізолюючою оболонкою</t>
   </si>
   <si>
-    <t>Основні тактико-технічні характеристики протипіхотної міни МОН-50</t>
-  </si>
-  <si>
-    <t>Маса</t>
-  </si>
-  <si>
-    <t>2 кг</t>
-  </si>
-  <si>
-    <t>Маса заряду</t>
-  </si>
-  <si>
-    <t>0,7 кг</t>
-  </si>
-  <si>
-    <t>Тип заряду</t>
-  </si>
-  <si>
-    <t>ПВВ-5А</t>
-  </si>
-  <si>
-    <t>Горизонтальний кут розкидання осколків</t>
-  </si>
-  <si>
-    <t>54°</t>
-  </si>
-  <si>
-    <t>Радіус суцільного ураження</t>
-  </si>
-  <si>
-    <t>50 / 58 м</t>
-  </si>
-  <si>
-    <t>Ширина зони суцільного ураження на відстані 50 / 58 м</t>
-  </si>
-  <si>
-    <t>45 / 54 м</t>
-  </si>
-  <si>
-    <t>Дальність ураження легкового та вантажного автотранспорту та живої сили в ньому</t>
-  </si>
-  <si>
-    <t>до 30 м</t>
-  </si>
-  <si>
-    <t>Дальність розльоту осколків від корпусу у тиловому та бічному напрямах</t>
-  </si>
-  <si>
-    <t>до 40 м</t>
-  </si>
-  <si>
-    <t>Дальність польоту забійних осколків</t>
-  </si>
-  <si>
-    <t>80 / 85 м</t>
-  </si>
-  <si>
-    <t>Порядок встановлення міни МОН-50 в грунт</t>
-  </si>
-  <si>
     <t>послабити пробку одного запального гнізда</t>
   </si>
   <si>
     <t>повернути міну опуклою стороною (стрілкою на прицілі) в напрямку цілі</t>
   </si>
   <si>
-    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міні
-стійке положення</t>
-  </si>
-  <si>
     <t>користуючись прицільною щілиною, навести міну на ціль (віху або місцевий предмет, який перебуває на місці очікуваної цілі), при наведенні відстань від ока навідника до щілини повинно бути 140-150 мм, лінія прицілювання повинна йти від ока навідника через середину жолоба на рівні нижньої площини щілини на центр цілі, для надання міні необхідного положення вона повертається на шарнірах і ніжках вдавлюється в ґрунт на необхідну глибину</t>
   </si>
   <si>
@@ -672,9 +608,6 @@
   </si>
   <si>
     <t>запобігання розривання зрощень</t>
-  </si>
-  <si>
-    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міністійке положення</t>
   </si>
   <si>
     <t>порохової серцевини з однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і оболонки</t>
@@ -920,9 +853,6 @@
     <t>Підривні машинки призначені для</t>
   </si>
   <si>
-    <t>ініціювання електродетонаторів нормальної чутливості (ЕДП та їх аналогів) при проведенні підривних робіт</t>
-  </si>
-  <si>
     <t>передачі електричного імпульсу від джерела живлення до вибухового заряду</t>
   </si>
   <si>
@@ -984,6 +914,253 @@
   </si>
   <si>
     <t>Дайте повну характеристику міни МОН-50</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни ОЗМ-72</t>
+  </si>
+  <si>
+    <t>відрити лунку по діаметру міни глубиною 18-20 см та встановити міну в лунці</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни ОЗМ-72 в грунт</t>
+  </si>
+  <si>
+    <t>вигвинтити пробку, встановити в міну капсуль детонатора №8-А дульцем вниз і знову загвинтити пробку, вільний простір навколо міни засипати ґрунтом і утрамбувати його кінцем дерев'яного кілочка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">забити на відстані 0,5 м від міни в бік противника металевий кілочок (кілочок забивається виїмкою в бік міни, висота кілочка над поверхнею ґрунту повинна бути 15-18 см) </t>
+  </si>
+  <si>
+    <t>встановити трос з карабінами, зачепивши карабін, прикріплений до дроті, за скобу пробки і протягнувши в отвір кілочка два інші карабіна, не допускаючи скручування троса, зачепити за карабін троса кінець дротяної розтяжки і, рухаючись уздовж фронту, розмотати її на половину довжини</t>
+  </si>
+  <si>
+    <t>забити на відстані 7,5 м від металевого кілочка дерев'яний кілочок, пропустити розтяжку через проріз на його верхньому кінці і продовжуючи рух, розмотати розтяжку на всю довжину</t>
+  </si>
+  <si>
+    <t>утримуючи кінець розтяжки, забити біля кінця розтяжки другий дерев'яний кілочок і прив'язати до нього кінець розтяжки, натягнувши її з невеликою слабиною провисання розтяжки в середній частині між кілочками повинно бути 2-3 см, натягнути у тому ж порядку другу розтяжку</t>
+  </si>
+  <si>
+    <t>підійти до міні і зняти ковпачок, що закриває капсуль запальник, перевірити наявність і справність метало елемента і різака у підривника МУВ-3 (МУВ-4) і нагвинтити підривник на втулку з капсулем запальником</t>
+  </si>
+  <si>
+    <t>бойову чеку підривника повернути кільцем в сторону металевого кілочка, відстебнути карабін від скоби, пробки і зачепити його за бойову чеку (якщо при зачепленні карабіна за чеку він витягується, у цьому випадку натяг розтяжки послаблюється нахилом металевого кілочка в сторону)</t>
+  </si>
+  <si>
+    <t>замаскувати міну (шар ґрунту зверху міни повинен бути не більше 2-3 см)</t>
+  </si>
+  <si>
+    <t>переконавшись у надійному стягнення бойової чеки, висмикнути з детонатора запобіжну чеку</t>
+  </si>
+  <si>
+    <t>відійти від міни, не зачіпаючи розтяжки</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни ТМ-62М</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-50</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни ОЗМ-72</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міниТМ-62М</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни ТМ-62М</t>
+  </si>
+  <si>
+    <t>викрутити (вийняти) пробку з міни та переконатися у правильному положенні гумової прокладки в міні</t>
+  </si>
+  <si>
+    <t>вкрутити підривник у міну і підтягнути його ключем</t>
+  </si>
+  <si>
+    <t>встановити міну в лунку чи на поверхню</t>
+  </si>
+  <si>
+    <t>зняти з підривника запобіжну чеку та різко натиснути кнопку пускача</t>
+  </si>
+  <si>
+    <t>замаскувати міну</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-100</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-100</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-100</t>
+  </si>
+  <si>
+    <t>Вага міни, кг</t>
+  </si>
+  <si>
+    <t>Вага заряду, кг</t>
+  </si>
+  <si>
+    <t>Радіус суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>Дальність ураження легкового та вантажного автотранспорту та живої сили в ньому, м</t>
+  </si>
+  <si>
+    <t>Дальність розльоту осколків від корпусу у тиловому та бічному напрямах, м</t>
+  </si>
+  <si>
+    <t>Дальність польоту забійних осколків, м</t>
+  </si>
+  <si>
+    <t>50 / 58</t>
+  </si>
+  <si>
+    <t>до 30</t>
+  </si>
+  <si>
+    <t>до 40</t>
+  </si>
+  <si>
+    <t>80 / 85</t>
+  </si>
+  <si>
+    <t>Висота вибуху міни, м</t>
+  </si>
+  <si>
+    <t>Дальність польоту окремих  забійних осколків, м</t>
+  </si>
+  <si>
+    <t>0,6-0,9</t>
+  </si>
+  <si>
+    <t>до 50</t>
+  </si>
+  <si>
+    <t>Вага ВР при споряджені тротилом, кг</t>
+  </si>
+  <si>
+    <t>Вага ВР при споряджені сумішшю МС або ТГА, кг</t>
+  </si>
+  <si>
+    <t>6,5 - 9,5</t>
+  </si>
+  <si>
+    <t>9,5 - 10</t>
+  </si>
+  <si>
+    <t>Дальність розльоту забійних осколків в тильному і бічних напрямках, м</t>
+  </si>
+  <si>
+    <t>до 160</t>
+  </si>
+  <si>
+    <t>прокласти електровибухову мережу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">забити костиль в дерево, пень, стовп, тріщину в скелі, в стіну або інший місцевий предмет, що служить основою для встановлення міни </t>
+  </si>
+  <si>
+    <t>закріпити корпус міни на скобі і закрутити барашкові гайки так, щоб міну можна було повертати з невеликим зусиллям</t>
+  </si>
+  <si>
+    <t>закріпити скобу разом з міною в одному з отворів забитого костиля та нагвинтити барашкову гайку</t>
+  </si>
+  <si>
+    <t>навести міну на ціль за допомогою прицільного пристосування</t>
+  </si>
+  <si>
+    <t>затягнути до відказу барашкові гайки і ще раз перевірити правильність прицілювання</t>
+  </si>
+  <si>
+    <t>перевірити справність вибухової мережі та електродетонатора ЕДП-р</t>
+  </si>
+  <si>
+    <t>приєднати електродетонатор до вибухової мережі та ізолювати зростки</t>
+  </si>
+  <si>
+    <t>викрутити пробку із запального гнізда міни і вкрутити в нього електродетонатор ЕДП-р</t>
+  </si>
+  <si>
+    <t>замаскувати міну та дроти</t>
+  </si>
+  <si>
+    <t>після відходу особового складу із зони краження, перевірити справність електровибухової мережи з пункту управління</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-90</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-90</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-90</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-50</t>
+  </si>
+  <si>
+    <t>Дальність суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>до 100</t>
+  </si>
+  <si>
+    <t>забити за допомогою молотка або сокири штир у дерево (стовп) до упору в виступ так, щоб різьбовий отвір знаходився по можливості вертикально</t>
+  </si>
+  <si>
+    <t>ввернути з підтиском штангу у фланець міни</t>
+  </si>
+  <si>
+    <t>навернути на штангу рукоятку</t>
+  </si>
+  <si>
+    <t>притримуючи міну за корпус, повернути її нижнім кінцем штанги в різьбовий отвір кришки ящика або в різьбовий отвір штиря</t>
+  </si>
+  <si>
+    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міні стійке положення</t>
+  </si>
+  <si>
+    <t>викрутити пробку запального гнізда міни</t>
+  </si>
+  <si>
+    <t>націлити міну на віху по вертикалі та по лінії горизонту</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-200</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-200</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">підключити електродетонатор ЕДП-р до провідної мережі та вкрутити в запальне гніздо міни </t>
+  </si>
+  <si>
+    <t>Для прицілювання міни використовується віха заввишки
+___ м, що встановлюється на відстані ___-___ метрів від міни. В тому випадку, коли обстановка не дозволяє встановити віху, наведення міни необхідно здійснювати на направлення імовірної появи противника по місцевим орієнтирам, що розташовані на відстані ___-___ метрів від міни</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження на відстані 100 метрів, м</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження на відстані 200 метрів, м</t>
+  </si>
+  <si>
+    <t>10,5 - 14,5</t>
+  </si>
+  <si>
+    <t>до 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ініціювання  капсулів-детонаторів  при проведенні підривних робіт </t>
+  </si>
+  <si>
+    <t>ініціювання спалахування  порохових  зарядів</t>
   </si>
 </sst>
 </file>
@@ -1280,16 +1457,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA66" sqref="AA66:AB66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
@@ -1491,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="AB3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>59</v>
@@ -1499,7 +1677,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1559,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="AB4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>60</v>
@@ -1627,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="AB5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>61</v>
@@ -1716,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="AB7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
@@ -1759,7 +1937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -1801,7 +1979,7 @@
     </row>
     <row r="10" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -1856,7 +2034,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1885,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,12 +2165,12 @@
         <v>9</v>
       </c>
       <c r="AB13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -2004,7 +2182,7 @@
         <v>141</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>87</v>
@@ -2079,12 +2257,12 @@
         <v>9</v>
       </c>
       <c r="AB15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>186</v>
@@ -2093,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>187</v>
@@ -2121,7 +2299,7 @@
     </row>
     <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>94</v>
@@ -2164,7 +2342,7 @@
     </row>
     <row r="18" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>101</v>
@@ -2262,7 +2440,7 @@
         <v>109</v>
       </c>
       <c r="AB20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2270,13 +2448,13 @@
         <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
@@ -2288,10 +2466,10 @@
         <v>112</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2305,33 +2483,33 @@
         <v>113</v>
       </c>
       <c r="AB21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2356,28 +2534,28 @@
     </row>
     <row r="23" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2402,28 +2580,28 @@
     </row>
     <row r="24" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2448,28 +2626,28 @@
     </row>
     <row r="25" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2491,22 +2669,22 @@
     </row>
     <row r="26" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2571,7 +2749,7 @@
         <v>115</v>
       </c>
       <c r="AB27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>59</v>
@@ -2622,7 +2800,7 @@
         <v>115</v>
       </c>
       <c r="AB28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC28" s="2" t="s">
         <v>60</v>
@@ -2673,7 +2851,7 @@
         <v>115</v>
       </c>
       <c r="AB29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>61</v>
@@ -2693,7 +2871,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>129</v>
@@ -2711,7 +2889,7 @@
         <v>129</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -2724,7 +2902,7 @@
         <v>113</v>
       </c>
       <c r="AB30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="135" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2944,7 @@
     </row>
     <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2798,12 +2976,12 @@
         <v>109</v>
       </c>
       <c r="AB32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2829,12 +3007,12 @@
         <v>109</v>
       </c>
       <c r="AB33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>136</v>
@@ -2860,7 +3038,7 @@
     </row>
     <row r="35" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>160</v>
@@ -2892,7 +3070,7 @@
     </row>
     <row r="36" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>160</v>
@@ -2924,7 +3102,7 @@
     </row>
     <row r="37" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>160</v>
@@ -2956,60 +3134,60 @@
     </row>
     <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AB38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>67</v>
@@ -3032,7 +3210,7 @@
         <v>141</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>141</v>
@@ -3091,29 +3269,31 @@
         <v>9</v>
       </c>
       <c r="AB41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3128,24 +3308,26 @@
     </row>
     <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3166,7 +3348,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>151</v>
@@ -3202,12 +3384,12 @@
         <v>115</v>
       </c>
       <c r="AB44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>159</v>
@@ -3239,7 +3421,7 @@
     </row>
     <row r="46" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>159</v>
@@ -3271,7 +3453,7 @@
     </row>
     <row r="47" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>159</v>
@@ -3329,22 +3511,22 @@
     </row>
     <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>67</v>
@@ -3358,22 +3540,22 @@
     </row>
     <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>67</v>
@@ -3387,22 +3569,22 @@
     </row>
     <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>67</v>
@@ -3416,7 +3598,7 @@
     </row>
     <row r="52" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>170</v>
@@ -3428,13 +3610,13 @@
         <v>172</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>173</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="AA52" s="2" t="s">
         <v>67</v>
@@ -3445,19 +3627,22 @@
     </row>
     <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>67</v>
@@ -3468,22 +3653,22 @@
     </row>
     <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O54" s="2">
         <v>50</v>
@@ -3504,7 +3689,7 @@
         <v>115</v>
       </c>
       <c r="AB54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC54" s="2" t="s">
         <v>59</v>
@@ -3512,25 +3697,25 @@
     </row>
     <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3554,7 +3739,7 @@
         <v>115</v>
       </c>
       <c r="AB55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC55" s="2" t="s">
         <v>60</v>
@@ -3562,25 +3747,25 @@
     </row>
     <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -3604,7 +3789,7 @@
         <v>115</v>
       </c>
       <c r="AB56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC56" s="2" t="s">
         <v>61</v>
@@ -3751,7 +3936,7 @@
     </row>
     <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>182</v>
@@ -3777,7 +3962,7 @@
     </row>
     <row r="63" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>182</v>
@@ -3803,7 +3988,7 @@
     </row>
     <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>182</v>
@@ -3827,24 +4012,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>177</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>67</v>
@@ -3853,54 +4038,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="AA66" s="4" t="s">
         <v>9</v>
@@ -3908,122 +4093,113 @@
       <c r="AB66" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC66" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>197</v>
+        <v>325</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>192</v>
+        <v>326</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.7</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="AB67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>113</v>
       </c>
       <c r="AB68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O69" s="2">
         <v>10</v>
@@ -4041,11 +4217,901 @@
         <v>109</v>
       </c>
       <c r="AB69" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R71" s="2">
+        <v>25</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P74" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O77" s="2">
+        <v>5</v>
+      </c>
+      <c r="P77" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="S77" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O80" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>90</v>
+      </c>
+      <c r="R80" s="2">
+        <v>60</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P82" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>80</v>
+      </c>
+      <c r="R82" s="2">
+        <v>50</v>
+      </c>
+      <c r="S82" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O84" s="2">
+        <v>25</v>
+      </c>
+      <c r="P84" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="S84" s="2">
+        <v>50</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="11" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions4.xlsx
+++ b/questions4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B7DB6-2408-4F1B-AB93-A2D9F46E36FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B2801-CB0C-4DE6-B94B-CAE097158B30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="376">
   <si>
     <t>Question</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>3-4 витка</t>
-  </si>
-  <si>
-    <t>послідовний</t>
   </si>
   <si>
     <t>вистачить одного витка</t>
@@ -1461,8 +1458,8 @@
   </sheetPr>
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="10" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -2034,7 +2031,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="14" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -2179,10 +2176,10 @@
         <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>87</v>
@@ -2216,19 +2213,19 @@
         <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>92</v>
@@ -2262,19 +2259,19 @@
     </row>
     <row r="16" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>100</v>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>94</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="18" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>101</v>
@@ -2448,13 +2445,13 @@
         <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
@@ -2466,10 +2463,10 @@
         <v>112</v>
       </c>
       <c r="Q21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2488,28 +2485,28 @@
     </row>
     <row r="22" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2534,28 +2531,28 @@
     </row>
     <row r="23" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2580,28 +2577,28 @@
     </row>
     <row r="24" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2626,28 +2623,28 @@
     </row>
     <row r="25" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2669,22 +2666,22 @@
     </row>
     <row r="26" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2871,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>129</v>
@@ -2889,7 +2886,7 @@
         <v>129</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -2910,10 +2907,10 @@
         <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>131</v>
@@ -2944,7 +2941,7 @@
     </row>
     <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2981,7 +2978,7 @@
     </row>
     <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3012,10 +3009,10 @@
     </row>
     <row r="34" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>133</v>
@@ -3038,25 +3035,25 @@
     </row>
     <row r="35" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>67</v>
@@ -3070,25 +3067,25 @@
     </row>
     <row r="36" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>67</v>
@@ -3102,25 +3099,25 @@
     </row>
     <row r="37" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>67</v>
@@ -3134,37 +3131,37 @@
     </row>
     <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="O38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="Q38" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
@@ -3175,19 +3172,19 @@
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>67</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="40" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>76</v>
@@ -3207,13 +3204,13 @@
         <v>87</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>67</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="41" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>89</v>
@@ -3233,19 +3230,19 @@
         <v>93</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>92</v>
@@ -3254,16 +3251,16 @@
         <v>93</v>
       </c>
       <c r="P41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>90</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA41" s="4" t="s">
         <v>9</v>
@@ -3274,26 +3271,26 @@
     </row>
     <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3308,26 +3305,26 @@
     </row>
     <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3342,43 +3339,43 @@
     </row>
     <row r="44" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="P44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>115</v>
@@ -3389,25 +3386,25 @@
     </row>
     <row r="45" spans="1:29" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA45" s="2" t="s">
         <v>67</v>
@@ -3421,25 +3418,25 @@
     </row>
     <row r="46" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>67</v>
@@ -3453,25 +3450,25 @@
     </row>
     <row r="47" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>67</v>
@@ -3485,22 +3482,22 @@
     </row>
     <row r="48" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>67</v>
@@ -3511,22 +3508,22 @@
     </row>
     <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>67</v>
@@ -3540,22 +3537,22 @@
     </row>
     <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="O50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>67</v>
@@ -3569,22 +3566,22 @@
     </row>
     <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="O51" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>67</v>
@@ -3598,25 +3595,25 @@
     </row>
     <row r="52" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA52" s="2" t="s">
         <v>67</v>
@@ -3627,22 +3624,22 @@
     </row>
     <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="O53" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>67</v>
@@ -3653,22 +3650,22 @@
     </row>
     <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="O54" s="2">
         <v>50</v>
@@ -3697,25 +3694,25 @@
     </row>
     <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3747,25 +3744,25 @@
     </row>
     <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -3797,19 +3794,19 @@
     </row>
     <row r="57" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>98</v>
@@ -3826,22 +3823,22 @@
     </row>
     <row r="58" spans="1:29" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA58" s="2" t="s">
         <v>67</v>
@@ -3855,22 +3852,22 @@
     </row>
     <row r="59" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>67</v>
@@ -3884,22 +3881,22 @@
     </row>
     <row r="60" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA60" s="2" t="s">
         <v>67</v>
@@ -3910,22 +3907,22 @@
     </row>
     <row r="61" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O61" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA61" s="2" t="s">
         <v>67</v>
@@ -3936,22 +3933,22 @@
     </row>
     <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="AA62" s="2" t="s">
         <v>67</v>
@@ -3962,22 +3959,22 @@
     </row>
     <row r="63" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA63" s="2" t="s">
         <v>67</v>
@@ -3988,22 +3985,22 @@
     </row>
     <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA64" s="2" t="s">
         <v>67</v>
@@ -4014,22 +4011,22 @@
     </row>
     <row r="65" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>67</v>
@@ -4040,52 +4037,52 @@
     </row>
     <row r="66" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O66" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA66" s="4" t="s">
         <v>9</v>
@@ -4099,25 +4096,25 @@
     </row>
     <row r="67" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="O67" s="2">
         <v>2</v>
@@ -4126,16 +4123,16 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="S67" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>115</v>
@@ -4149,43 +4146,43 @@
     </row>
     <row r="68" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="O68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T68" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>113</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="69" spans="2:29" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="2">
         <v>10</v>
@@ -4225,55 +4222,55 @@
     </row>
     <row r="70" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O70" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA70" s="4" t="s">
         <v>9</v>
@@ -4287,22 +4284,22 @@
     </row>
     <row r="71" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="O71" s="2">
         <v>5</v>
@@ -4311,13 +4308,13 @@
         <v>0.66</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R71" s="2">
         <v>25</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA71" s="2" t="s">
         <v>115</v>
@@ -4331,73 +4328,73 @@
     </row>
     <row r="72" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="O72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="R72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T72" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="U72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W72" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M72" s="2" t="s">
+      <c r="X72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y72" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="AA72" s="2" t="s">
         <v>113</v>
@@ -4411,52 +4408,52 @@
     </row>
     <row r="73" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="K73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="AA73" s="4" t="s">
         <v>9</v>
@@ -4470,19 +4467,19 @@
     </row>
     <row r="74" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="O74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P74" s="2">
         <v>7</v>
@@ -4502,37 +4499,37 @@
     </row>
     <row r="75" spans="2:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="O75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="R75" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="S75" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="AA75" s="2" t="s">
         <v>113</v>
@@ -4546,52 +4543,52 @@
     </row>
     <row r="76" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O76" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA76" s="4" t="s">
         <v>9</v>
@@ -4605,22 +4602,22 @@
     </row>
     <row r="77" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O77" s="2">
         <v>5</v>
@@ -4629,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S77" s="2">
         <v>30</v>
@@ -4649,73 +4646,73 @@
     </row>
     <row r="78" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="O78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="R78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T78" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="U78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W78" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="X78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y78" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="AA78" s="2" t="s">
         <v>113</v>
@@ -4729,52 +4726,52 @@
     </row>
     <row r="79" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O79" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA79" s="4" t="s">
         <v>9</v>
@@ -4788,22 +4785,22 @@
     </row>
     <row r="80" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E80" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O80" s="2">
         <v>12.1</v>
@@ -4818,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>115</v>
@@ -4832,61 +4829,61 @@
     </row>
     <row r="81" spans="2:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="K81" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q81" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="R81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O81" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="U81" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA81" s="2" t="s">
         <v>113</v>
@@ -4900,7 +4897,7 @@
     </row>
     <row r="82" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O82" s="2">
         <v>1.5</v>
@@ -4929,52 +4926,52 @@
     </row>
     <row r="83" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O83" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA83" s="4" t="s">
         <v>9</v>
@@ -4988,22 +4985,22 @@
     </row>
     <row r="84" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O84" s="2">
         <v>25</v>
@@ -5012,10 +5009,10 @@
         <v>12</v>
       </c>
       <c r="Q84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="S84" s="2">
         <v>50</v>
@@ -5032,73 +5029,73 @@
     </row>
     <row r="85" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="O85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q85" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="R85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="U85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W85" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M85" s="2" t="s">
+      <c r="X85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y85" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="AA85" s="2" t="s">
         <v>113</v>

--- a/questions4.xlsx
+++ b/questions4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B2801-CB0C-4DE6-B94B-CAE097158B30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68983B7-22FF-4291-A184-EF90498914E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="377">
   <si>
     <t>Question</t>
   </si>
@@ -769,40 +769,13 @@
     <t>для здійснення одночасного підриву декількох зарядів, а також для безкапсульного підривання зарядів ВР, закладених в важкодоступних місцях</t>
   </si>
   <si>
-    <t>Діаметр ДШ-В дорівнює ___–___ мм. ДШ-В підривається зі швидкістю не менше ___ метрів за секунду. Його слід оберігати від механічних пошкоджень, а також від дії вологи і вогню; від вогню ДШ може загоратися і повільно горіти; у разі прострілювання кулею він може детонувати. ДШ відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШ-В міститься ___ г вибухової речовини ТЕН. Під водою ДШ марки ДШ-В можна підривати за умови перебування його там не більше ___ годин</t>
-  </si>
-  <si>
     <t xml:space="preserve">Діаметр ДШЕ-6 дорівнює ___ мм. ДШЕ-6 підривається зі швидкістю не менше ___ метрів за секунду. ДШЕ-6 відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШЕ-6 міститься ___ г вибухової речовини </t>
   </si>
   <si>
     <t>Якими способами здійснюються зростки ДШ?</t>
   </si>
   <si>
-    <t>Вариант 1</t>
-  </si>
-  <si>
-    <t>Вариант 2</t>
-  </si>
-  <si>
-    <t>Вариант 3</t>
-  </si>
-  <si>
-    <t>Вариант 4</t>
-  </si>
-  <si>
-    <t>Вариант 5</t>
-  </si>
-  <si>
-    <t>Вариант 6</t>
-  </si>
-  <si>
     <t>Який вариант зростки ДШ внакладку правильний?</t>
-  </si>
-  <si>
-    <t>Вариант А</t>
-  </si>
-  <si>
-    <t>Вариант Б</t>
   </si>
   <si>
     <t>Підходити до зарядів, що відмовили при електричному способі підриву  дозволяється не раніше ніж через</t>
@@ -1158,6 +1131,36 @@
   </si>
   <si>
     <t>ініціювання спалахування  порохових  зарядів</t>
+  </si>
+  <si>
+    <t>Варіант 1</t>
+  </si>
+  <si>
+    <t>Варіант А</t>
+  </si>
+  <si>
+    <t>Варіант 2</t>
+  </si>
+  <si>
+    <t>Варіант Б</t>
+  </si>
+  <si>
+    <t>Варіант 3</t>
+  </si>
+  <si>
+    <t>Варіант 4</t>
+  </si>
+  <si>
+    <t>Варіант 5</t>
+  </si>
+  <si>
+    <t>Варіант 6</t>
+  </si>
+  <si>
+    <t>Діаметр ДШ-В дорівнює ___–___ мм. ДШ-В підривається зі швидкістю не менше ___ метрів за секунду. Його слід оберігати від механічних пошкоджень, а також від дії вологи і вогню; від вогню ДШ може загоратися і повільно горіти; у разі прострілювання кулею він може детонувати. ДШ відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШ міститься ___ г вибухової речовини ТЕН. Під водою ДШ марки ДШ-В можна підривати за умови перебування його там не більше ___ годин</t>
+  </si>
+  <si>
+    <t>після відходу особового складу із зони ураження, перевірити справність електровибухової мережи з пункту управління</t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1461,8 @@
   </sheetPr>
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y78" sqref="Y78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3131,37 +3134,37 @@
     </row>
     <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
@@ -3172,19 +3175,19 @@
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>67</v>
@@ -3271,26 +3274,26 @@
     </row>
     <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3305,26 +3308,26 @@
     </row>
     <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3508,22 +3511,22 @@
     </row>
     <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>67</v>
@@ -3537,22 +3540,22 @@
     </row>
     <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>67</v>
@@ -3566,22 +3569,22 @@
     </row>
     <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>67</v>
@@ -3624,22 +3627,22 @@
     </row>
     <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>67</v>
@@ -3650,22 +3653,22 @@
     </row>
     <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O54" s="2">
         <v>50</v>
@@ -3694,25 +3697,25 @@
     </row>
     <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3744,25 +3747,25 @@
     </row>
     <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -3933,7 +3936,7 @@
     </row>
     <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>181</v>
@@ -3985,7 +3988,7 @@
     </row>
     <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>181</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="66" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>213</v>
@@ -4049,16 +4052,16 @@
         <v>220</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>215</v>
@@ -4096,25 +4099,25 @@
     </row>
     <row r="67" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O67" s="2">
         <v>2</v>
@@ -4123,16 +4126,16 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>115</v>
@@ -4146,10 +4149,10 @@
     </row>
     <row r="68" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>188</v>
@@ -4173,7 +4176,7 @@
         <v>188</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>189</v>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="70" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>213</v>
@@ -4234,16 +4237,16 @@
         <v>220</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>215</v>
@@ -4267,7 +4270,7 @@
         <v>215</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>219</v>
@@ -4284,22 +4287,22 @@
     </row>
     <row r="71" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="O71" s="2">
         <v>5</v>
@@ -4308,13 +4311,13 @@
         <v>0.66</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="R71" s="2">
         <v>25</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AA71" s="2" t="s">
         <v>115</v>
@@ -4328,73 +4331,73 @@
     </row>
     <row r="72" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="O72" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y72" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="AA72" s="2" t="s">
         <v>113</v>
@@ -4408,7 +4411,7 @@
     </row>
     <row r="73" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>213</v>
@@ -4420,16 +4423,16 @@
         <v>220</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>215</v>
@@ -4450,7 +4453,7 @@
         <v>214</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>216</v>
@@ -4467,19 +4470,19 @@
     </row>
     <row r="74" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P74" s="2">
         <v>7</v>
@@ -4499,37 +4502,37 @@
     </row>
     <row r="75" spans="2:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AA75" s="2" t="s">
         <v>113</v>
@@ -4543,7 +4546,7 @@
     </row>
     <row r="76" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>213</v>
@@ -4555,16 +4558,16 @@
         <v>220</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>215</v>
@@ -4602,22 +4605,22 @@
     </row>
     <row r="77" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="O77" s="2">
         <v>5</v>
@@ -4626,10 +4629,10 @@
         <v>2</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="S77" s="2">
         <v>30</v>
@@ -4646,73 +4649,73 @@
     </row>
     <row r="78" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="J78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="O78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X78" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="Y78" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="AA78" s="2" t="s">
         <v>113</v>
@@ -4726,7 +4729,7 @@
     </row>
     <row r="79" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>213</v>
@@ -4738,16 +4741,16 @@
         <v>220</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>215</v>
@@ -4785,22 +4788,22 @@
     </row>
     <row r="80" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O80" s="2">
         <v>12.1</v>
@@ -4815,7 +4818,7 @@
         <v>60</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>115</v>
@@ -4829,61 +4832,61 @@
     </row>
     <row r="81" spans="2:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>187</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AA81" s="2" t="s">
         <v>113</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="82" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="O82" s="2">
         <v>1.5</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="83" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>213</v>
@@ -4938,16 +4941,16 @@
         <v>220</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>215</v>
@@ -4985,22 +4988,22 @@
     </row>
     <row r="84" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="O84" s="2">
         <v>25</v>
@@ -5009,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="S84" s="2">
         <v>50</v>
@@ -5029,73 +5032,73 @@
     </row>
     <row r="85" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="J85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M85" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="O85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X85" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="Y85" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="AA85" s="2" t="s">
         <v>113</v>
